--- a/src/test/resources/Legacy/2100 HKST.xlsx
+++ b/src/test/resources/Legacy/2100 HKST.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>3rd</t>
+  </si>
+  <si>
+    <t>2000 HKST</t>
+  </si>
+  <si>
+    <t>2100 HKST</t>
   </si>
   <si>
     <t>Time</t>
@@ -72,22 +78,16 @@
   <si>
     <t>TURKEY</t>
   </si>
-  <si>
-    <t>2000 HKST</t>
-  </si>
-  <si>
-    <t>2100 HKST</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Iskoola Pota"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,13 +133,13 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,6 +242,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,1540 +487,3245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
-        <v>7.77</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10.44</v>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.45</v>
       </c>
       <c r="E3" s="5">
-        <v>8.34</v>
+        <v>6.39</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F26" si="0">AVERAGE(C3:E3)</f>
-        <v>8.85</v>
+        <f t="shared" ref="F3:F18" si="0">AVERAGE(C3:E3)</f>
+        <v>7.6033333333333344</v>
       </c>
       <c r="G3" s="5">
-        <v>2.91</v>
+        <v>3.26</v>
       </c>
       <c r="H3" s="5">
-        <v>5.09</v>
+        <v>3.38</v>
       </c>
       <c r="I3" s="5">
-        <v>2.78</v>
+        <v>3.66</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J26" si="1">AVERAGE(G3:I3)</f>
-        <v>3.5933333333333333</v>
+        <f t="shared" ref="J3:J18" si="1">AVERAGE(G3:I3)</f>
+        <v>3.4333333333333336</v>
       </c>
       <c r="K3" s="5">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="L3" s="5">
-        <v>5.01</v>
+        <v>2.89</v>
       </c>
       <c r="M3" s="5">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N26" si="2">AVERAGE(K3:M3)</f>
-        <v>3.7866666666666666</v>
+        <f t="shared" ref="N3:N18" si="2">AVERAGE(K3:M3)</f>
+        <v>2.98</v>
       </c>
       <c r="O3" s="5">
-        <v>2.72</v>
+        <v>5.68</v>
       </c>
       <c r="P3" s="5">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="Q3" s="5">
-        <v>3.01</v>
+        <v>3.8</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R26" si="3">AVERAGE(O3:Q3)</f>
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R3:R18" si="3">AVERAGE(O3:Q3)</f>
+        <v>4.5799999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
-        <v>9.9600000000000009</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="D4" s="5">
-        <v>6.96</v>
+        <v>9.18</v>
       </c>
       <c r="E4" s="5">
-        <v>7.18</v>
+        <v>6.27</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>8.0333333333333332</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="G4" s="5">
-        <v>4.57</v>
+        <v>4.51</v>
       </c>
       <c r="H4" s="5">
-        <v>5.86</v>
+        <v>3.22</v>
       </c>
       <c r="I4" s="5">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>4.5633333333333335</v>
+        <v>3.7000000000000006</v>
       </c>
       <c r="K4" s="5">
-        <v>3.91</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="L4" s="5">
-        <v>3.09</v>
+        <v>5.43</v>
       </c>
       <c r="M4" s="5">
-        <v>3.3</v>
+        <v>5.05</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>3.4333333333333336</v>
+        <v>5.123333333333334</v>
       </c>
       <c r="O4" s="5">
-        <v>5.25</v>
+        <v>5.54</v>
       </c>
       <c r="P4" s="5">
-        <v>4.21</v>
+        <v>5.03</v>
       </c>
       <c r="Q4" s="5">
-        <v>3.65</v>
+        <v>5.79</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="3"/>
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.4533333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>6.42</v>
+        <v>6.11</v>
       </c>
       <c r="D5" s="5">
-        <v>9.69</v>
+        <v>8.86</v>
       </c>
       <c r="E5" s="6">
-        <v>10.210000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>8.7733333333333334</v>
+        <v>8.4866666666666664</v>
       </c>
       <c r="G5" s="5">
-        <v>2.91</v>
+        <v>3.7</v>
       </c>
       <c r="H5" s="5">
-        <v>5.75</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I5" s="5">
-        <v>4.7</v>
+        <v>5.55</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>4.4533333333333331</v>
+        <v>4.6033333333333326</v>
       </c>
       <c r="K5" s="5">
-        <v>5.35</v>
+        <v>4.33</v>
       </c>
       <c r="L5" s="5">
-        <v>5.19</v>
+        <v>4.09</v>
       </c>
       <c r="M5" s="5">
-        <v>5.13</v>
+        <v>4.62</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>5.2233333333333327</v>
+        <v>4.3466666666666667</v>
       </c>
       <c r="O5" s="5">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="P5" s="5">
-        <v>3.79</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" s="5">
-        <v>4.58</v>
+        <v>3.36</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
-        <v>3.7900000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.4599999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>7.3</v>
+        <v>9.77</v>
       </c>
       <c r="D6" s="5">
-        <v>5.5</v>
+        <v>7.21</v>
       </c>
       <c r="E6" s="5">
-        <v>8.1</v>
+        <v>9.99</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>6.9666666666666659</v>
+        <v>8.99</v>
       </c>
       <c r="G6" s="5">
-        <v>5.04</v>
+        <v>3.83</v>
       </c>
       <c r="H6" s="5">
-        <v>4.6500000000000004</v>
+        <v>4.17</v>
       </c>
       <c r="I6" s="5">
-        <v>4.62</v>
+        <v>2.81</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>4.7700000000000005</v>
+        <v>3.6033333333333335</v>
       </c>
       <c r="K6" s="5">
-        <v>5.1100000000000003</v>
+        <v>5.99</v>
       </c>
       <c r="L6" s="5">
-        <v>4.99</v>
+        <v>4.12</v>
       </c>
       <c r="M6" s="5">
-        <v>3.99</v>
+        <v>5.6</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>4.6966666666666672</v>
+        <v>5.2366666666666664</v>
       </c>
       <c r="O6" s="5">
-        <v>3.44</v>
+        <v>4.16</v>
       </c>
       <c r="P6" s="5">
-        <v>4.79</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" s="5">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="3"/>
-        <v>3.7633333333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.2366666666666672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10.36</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8.7799999999999994</v>
       </c>
       <c r="D7" s="5">
-        <v>5.86</v>
+        <v>6.43</v>
       </c>
       <c r="E7" s="5">
-        <v>6.26</v>
+        <v>9.81</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>7.4933333333333323</v>
+        <v>8.34</v>
       </c>
       <c r="G7" s="5">
-        <v>4.8499999999999996</v>
+        <v>3.62</v>
       </c>
       <c r="H7" s="5">
-        <v>5.61</v>
+        <v>5.67</v>
       </c>
       <c r="I7" s="5">
-        <v>4.59</v>
+        <v>5.4</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>5.0166666666666666</v>
+        <v>4.8966666666666665</v>
       </c>
       <c r="K7" s="5">
-        <v>4.66</v>
+        <v>4.34</v>
       </c>
       <c r="L7" s="5">
-        <v>2.6</v>
+        <v>3.11</v>
       </c>
       <c r="M7" s="5">
-        <v>5.81</v>
+        <v>3.15</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>4.3566666666666665</v>
+        <v>3.5333333333333332</v>
       </c>
       <c r="O7" s="5">
-        <v>4.5199999999999996</v>
+        <v>3.11</v>
       </c>
       <c r="P7" s="5">
-        <v>4.22</v>
+        <v>5.79</v>
       </c>
       <c r="Q7" s="5">
-        <v>4.9000000000000004</v>
+        <v>3.92</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="3"/>
-        <v>4.546666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.2733333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>9.14</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10.09</v>
       </c>
       <c r="D8" s="5">
-        <v>7.49</v>
+        <v>9.75</v>
       </c>
       <c r="E8" s="5">
-        <v>6.12</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>7.5833333333333348</v>
+        <v>9.7099999999999991</v>
       </c>
       <c r="G8" s="5">
-        <v>5.46</v>
+        <v>2.72</v>
       </c>
       <c r="H8" s="5">
-        <v>5.63</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I8" s="5">
-        <v>4.91</v>
+        <v>3.7</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
+        <v>3.5766666666666667</v>
       </c>
       <c r="K8" s="5">
-        <v>3.42</v>
+        <v>3.85</v>
       </c>
       <c r="L8" s="5">
-        <v>5.63</v>
+        <v>4.05</v>
       </c>
       <c r="M8" s="5">
-        <v>3.32</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>4.123333333333334</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O8" s="5">
-        <v>2.93</v>
+        <v>3.27</v>
       </c>
       <c r="P8" s="5">
-        <v>5.83</v>
+        <v>4.24</v>
       </c>
       <c r="Q8" s="5">
-        <v>2.97</v>
+        <v>5.34</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="3"/>
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.2833333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="5">
-        <v>9.2899999999999991</v>
+        <v>8.01</v>
       </c>
       <c r="D9" s="5">
-        <v>6.52</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="E9" s="5">
-        <v>9.9600000000000009</v>
+        <v>8.41</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>8.59</v>
+        <v>8.4866666666666664</v>
       </c>
       <c r="G9" s="5">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="H9" s="5">
-        <v>4.7300000000000004</v>
+        <v>5.97</v>
       </c>
       <c r="I9" s="5">
-        <v>4.99</v>
+        <v>5.87</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>4.1833333333333336</v>
+        <v>5.1433333333333335</v>
       </c>
       <c r="K9" s="5">
-        <v>5.97</v>
+        <v>5.39</v>
       </c>
       <c r="L9" s="5">
-        <v>5.66</v>
+        <v>5.77</v>
       </c>
       <c r="M9" s="5">
-        <v>4.54</v>
+        <v>5.68</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>5.39</v>
+        <v>5.6133333333333333</v>
       </c>
       <c r="O9" s="5">
-        <v>4.5199999999999996</v>
+        <v>2.77</v>
       </c>
       <c r="P9" s="5">
-        <v>3.28</v>
+        <v>5.2</v>
       </c>
       <c r="Q9" s="5">
-        <v>5.21</v>
+        <v>5.99</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="3"/>
-        <v>4.336666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.6533333333333333</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8.34</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8.2799999999999994</v>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10.48</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.77</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>8.5300000000000011</v>
+        <v>8.1233333333333331</v>
       </c>
       <c r="G10" s="5">
-        <v>4.26</v>
+        <v>3.18</v>
       </c>
       <c r="H10" s="5">
-        <v>2.98</v>
+        <v>4.66</v>
       </c>
       <c r="I10" s="5">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>3.3033333333333332</v>
+        <v>3.5166666666666671</v>
       </c>
       <c r="K10" s="5">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="L10" s="5">
-        <v>5.55</v>
+        <v>4.54</v>
       </c>
       <c r="M10" s="5">
-        <v>2.68</v>
+        <v>3.56</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>3.8800000000000003</v>
+        <v>3.75</v>
       </c>
       <c r="O10" s="5">
-        <v>2.96</v>
+        <v>3.23</v>
       </c>
       <c r="P10" s="5">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="Q10" s="5">
-        <v>2.76</v>
+        <v>4.34</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="3"/>
-        <v>3.2366666666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.8699999999999997</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="D11" s="5">
-        <v>9.77</v>
+        <v>8.76</v>
       </c>
       <c r="E11" s="5">
-        <v>9.81</v>
+        <v>9.85</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>8.7533333333333321</v>
+        <v>8.5733333333333324</v>
       </c>
       <c r="G11" s="5">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="H11" s="5">
-        <v>5.05</v>
+        <v>3.76</v>
       </c>
       <c r="I11" s="5">
-        <v>3.71</v>
+        <v>3.25</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>4.1166666666666671</v>
+        <v>3.5</v>
       </c>
       <c r="K11" s="5">
-        <v>5.45</v>
+        <v>3.64</v>
       </c>
       <c r="L11" s="5">
-        <v>3.04</v>
+        <v>3.59</v>
       </c>
       <c r="M11" s="5">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>4.003333333333333</v>
+        <v>3.4933333333333336</v>
       </c>
       <c r="O11" s="5">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="P11" s="5">
-        <v>4.29</v>
+        <v>5.12</v>
       </c>
       <c r="Q11" s="5">
-        <v>4.1900000000000004</v>
+        <v>4.88</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>3.9533333333333331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.4633333333333338</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
-        <v>8.44</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6.96</v>
-      </c>
-      <c r="E12" s="5">
-        <v>7</v>
+        <v>9.59</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10.18</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>7.4666666666666659</v>
+        <v>9.9566666666666652</v>
       </c>
       <c r="G12" s="5">
-        <v>5.34</v>
+        <v>4.08</v>
       </c>
       <c r="H12" s="5">
-        <v>5.12</v>
+        <v>2.97</v>
       </c>
       <c r="I12" s="5">
-        <v>5.85</v>
+        <v>5.36</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>5.4366666666666674</v>
+        <v>4.1366666666666667</v>
       </c>
       <c r="K12" s="5">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="L12" s="5">
-        <v>5.05</v>
+        <v>2.64</v>
       </c>
       <c r="M12" s="5">
-        <v>4.88</v>
+        <v>5.62</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>4.6433333333333335</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="O12" s="5">
-        <v>4.66</v>
+        <v>5.86</v>
       </c>
       <c r="P12" s="5">
-        <v>4.1399999999999997</v>
+        <v>3.43</v>
       </c>
       <c r="Q12" s="5">
-        <v>4.96</v>
+        <v>5.48</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="3"/>
-        <v>4.5866666666666669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.9233333333333338</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5">
-        <v>7.54</v>
+        <v>7.16</v>
       </c>
       <c r="D13" s="5">
-        <v>7.83</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E13" s="5">
-        <v>7.92</v>
+        <v>7.08</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>7.7633333333333328</v>
+        <v>7.6466666666666656</v>
       </c>
       <c r="G13" s="5">
-        <v>5.33</v>
+        <v>4.25</v>
       </c>
       <c r="H13" s="5">
-        <v>5.66</v>
+        <v>3.82</v>
       </c>
       <c r="I13" s="5">
-        <v>5.53</v>
+        <v>3.64</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>5.5066666666666668</v>
+        <v>3.9033333333333338</v>
       </c>
       <c r="K13" s="5">
-        <v>4.97</v>
+        <v>5.43</v>
       </c>
       <c r="L13" s="5">
-        <v>2.74</v>
+        <v>5.36</v>
       </c>
       <c r="M13" s="5">
-        <v>3.61</v>
+        <v>4.29</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>3.7733333333333334</v>
+        <v>5.0266666666666664</v>
       </c>
       <c r="O13" s="5">
-        <v>5.15</v>
+        <v>5.59</v>
       </c>
       <c r="P13" s="5">
-        <v>3.56</v>
+        <v>5.52</v>
       </c>
       <c r="Q13" s="5">
-        <v>2.91</v>
+        <v>5.14</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="3"/>
-        <v>3.8733333333333335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
-        <v>6.37</v>
+        <v>8.64</v>
       </c>
       <c r="D14" s="5">
-        <v>5.73</v>
+        <v>6.51</v>
       </c>
       <c r="E14" s="5">
-        <v>6.12</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>6.0733333333333341</v>
+        <v>7.8966666666666656</v>
       </c>
       <c r="G14" s="5">
-        <v>4.8099999999999996</v>
+        <v>5.26</v>
       </c>
       <c r="H14" s="5">
-        <v>3.94</v>
+        <v>5.16</v>
       </c>
       <c r="I14" s="5">
-        <v>5.96</v>
+        <v>5.6</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
-        <v>4.9033333333333333</v>
+        <v>5.34</v>
       </c>
       <c r="K14" s="5">
-        <v>3.48</v>
+        <v>2.85</v>
       </c>
       <c r="L14" s="5">
-        <v>3.14</v>
+        <v>4.42</v>
       </c>
       <c r="M14" s="5">
-        <v>5.31</v>
+        <v>4.46</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>3.9766666666666666</v>
+        <v>3.91</v>
       </c>
       <c r="O14" s="5">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="P14" s="5">
-        <v>3.68</v>
+        <v>5.27</v>
       </c>
       <c r="Q14" s="5">
-        <v>3.71</v>
+        <v>2.7</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="3"/>
-        <v>3.6966666666666668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.3233333333333333</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5">
-        <v>6.85</v>
-      </c>
-      <c r="D15" s="5">
-        <v>9.99</v>
-      </c>
-      <c r="E15" s="6">
-        <v>10.130000000000001</v>
+        <v>6.81</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8.33</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>8.99</v>
+        <v>8.42</v>
       </c>
       <c r="G15" s="5">
-        <v>2.64</v>
+        <v>5.13</v>
       </c>
       <c r="H15" s="5">
-        <v>3.97</v>
+        <v>2.72</v>
       </c>
       <c r="I15" s="5">
-        <v>4.16</v>
+        <v>4.04</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>3.59</v>
+        <v>3.9633333333333334</v>
       </c>
       <c r="K15" s="5">
-        <v>4.9800000000000004</v>
+        <v>5.54</v>
       </c>
       <c r="L15" s="5">
-        <v>5.12</v>
+        <v>3.39</v>
       </c>
       <c r="M15" s="5">
-        <v>5.7</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>5.2666666666666666</v>
+        <v>4.54</v>
       </c>
       <c r="O15" s="5">
-        <v>2.77</v>
+        <v>3.03</v>
       </c>
       <c r="P15" s="5">
-        <v>4.74</v>
+        <v>3.43</v>
       </c>
       <c r="Q15" s="5">
-        <v>4.6100000000000003</v>
+        <v>4.7</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="3"/>
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.72</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6">
-        <v>10.31</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.3699999999999992</v>
       </c>
       <c r="D16" s="5">
-        <v>9.89</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E16" s="5">
-        <v>6.04</v>
+        <v>5.93</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>8.7466666666666679</v>
+        <v>8.3666666666666671</v>
       </c>
       <c r="G16" s="5">
-        <v>3.02</v>
+        <v>2.76</v>
       </c>
       <c r="H16" s="5">
-        <v>3</v>
+        <v>3.59</v>
       </c>
       <c r="I16" s="5">
-        <v>5.35</v>
+        <v>2.97</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
-        <v>3.7899999999999996</v>
+        <v>3.1066666666666669</v>
       </c>
       <c r="K16" s="5">
-        <v>5.74</v>
+        <v>5.24</v>
       </c>
       <c r="L16" s="5">
-        <v>3.35</v>
+        <v>5.73</v>
       </c>
       <c r="M16" s="5">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>4.2766666666666664</v>
+        <v>4.7700000000000005</v>
       </c>
       <c r="O16" s="5">
-        <v>3.29</v>
+        <v>5.79</v>
       </c>
       <c r="P16" s="5">
-        <v>5.24</v>
+        <v>5.71</v>
       </c>
       <c r="Q16" s="5">
-        <v>5.59</v>
+        <v>5.2</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="3"/>
-        <v>4.706666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.5666666666666664</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="5">
-        <v>5.94</v>
+        <v>9.57</v>
       </c>
       <c r="D17" s="5">
-        <v>6.24</v>
+        <v>7.39</v>
       </c>
       <c r="E17" s="5">
-        <v>9.4600000000000009</v>
+        <v>8.31</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>7.2133333333333338</v>
+        <v>8.4233333333333338</v>
       </c>
       <c r="G17" s="5">
-        <v>4.05</v>
+        <v>3.04</v>
       </c>
       <c r="H17" s="5">
-        <v>4.29</v>
+        <v>5.61</v>
       </c>
       <c r="I17" s="5">
-        <v>3.07</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="1"/>
-        <v>3.8033333333333332</v>
+        <v>4.32</v>
       </c>
       <c r="K17" s="5">
-        <v>2.79</v>
+        <v>4.57</v>
       </c>
       <c r="L17" s="5">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="M17" s="5">
-        <v>3.69</v>
+        <v>3.02</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>4.1333333333333337</v>
+        <v>4.5266666666666664</v>
       </c>
       <c r="O17" s="5">
-        <v>3.07</v>
+        <v>5.26</v>
       </c>
       <c r="P17" s="5">
-        <v>3.4</v>
+        <v>5.56</v>
       </c>
       <c r="Q17" s="5">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="3"/>
-        <v>3.2899999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.3566666666666665</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
-        <v>8.98</v>
+      <c r="C18" s="6">
+        <v>10.39</v>
       </c>
       <c r="D18" s="5">
-        <v>8.73</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E18" s="5">
-        <v>9.92</v>
+        <v>9.33</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>9.2100000000000009</v>
+        <v>9.8400000000000016</v>
       </c>
       <c r="G18" s="5">
-        <v>3.11</v>
+        <v>4.3</v>
       </c>
       <c r="H18" s="5">
-        <v>3.33</v>
+        <v>4.74</v>
       </c>
       <c r="I18" s="5">
-        <v>3.77</v>
+        <v>4.05</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="1"/>
-        <v>3.4033333333333329</v>
+        <v>4.3633333333333333</v>
       </c>
       <c r="K18" s="5">
-        <v>5.0599999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="L18" s="5">
-        <v>5.52</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="M18" s="5">
-        <v>3.46</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>4.68</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="O18" s="5">
-        <v>4.3099999999999996</v>
+        <v>2.97</v>
       </c>
       <c r="P18" s="5">
-        <v>2.74</v>
+        <v>5.97</v>
       </c>
       <c r="Q18" s="5">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="3"/>
-        <v>3.5566666666666666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9.49</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9.57</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19:F26" si="4">AVERAGE(C19:E19)</f>
+        <v>9.36</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.54</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:J26" si="5">AVERAGE(G19:I19)</f>
+        <v>5.0766666666666671</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3.01</v>
+      </c>
+      <c r="M19" s="5">
+        <v>4.37</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" ref="N19:N26" si="6">AVERAGE(K19:M19)</f>
+        <v>4.3933333333333335</v>
+      </c>
+      <c r="O19" s="5">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="P19" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3.01</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" ref="R19:R26" si="7">AVERAGE(O19:Q19)</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8.69</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6.33</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8.57</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>7.8633333333333333</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3.52</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="6"/>
+        <v>4.1166666666666663</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3.78</v>
+      </c>
+      <c r="P20" s="5">
+        <v>3.69</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>4.91</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>4.126666666666666</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.71</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.68</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9.48</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>7.623333333333334</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2.89</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8266666666666667</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5.55</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4.62</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3966666666666665</v>
+      </c>
+      <c r="O21" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="P21" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>4.45</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="7"/>
+        <v>4.876666666666666</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8.61</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.96</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8166666666666664</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5.58</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4.25</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>5.1466666666666674</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.42</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3.96</v>
+      </c>
+      <c r="M22" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2.93</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>5.73</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7733333333333334</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6">
-        <v>10.23</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6.74</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="C23" s="5">
+        <v>7.65</v>
+      </c>
+      <c r="D23" s="5">
         <v>7.86</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>8.2766666666666655</v>
-      </c>
-      <c r="G19" s="5">
-        <v>3.32</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="E23" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="4"/>
+        <v>7.1366666666666676</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="L23" s="5">
+        <v>4.01</v>
+      </c>
+      <c r="M23" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="6"/>
+        <v>5.003333333333333</v>
+      </c>
+      <c r="O23" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="P23" s="5">
+        <v>4.26</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3033333333333337</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="D24" s="6">
+        <v>10.35</v>
+      </c>
+      <c r="E24" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5466666666666669</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3.47</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="I24" s="5">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I19" s="5">
-        <v>3.83</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8633333333333333</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>4.330000000000001</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2.61</v>
+      </c>
+      <c r="M24" s="5">
+        <v>5.63</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8866666666666667</v>
+      </c>
+      <c r="O24" s="5">
+        <v>3.71</v>
+      </c>
+      <c r="P24" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="Q24" s="5">
         <v>5.67</v>
       </c>
-      <c r="L19" s="5">
-        <v>5.65</v>
-      </c>
-      <c r="M19" s="5">
-        <v>5.94</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7533333333333339</v>
-      </c>
-      <c r="O19" s="5">
-        <v>5.13</v>
-      </c>
-      <c r="P19" s="5">
-        <v>4.55</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7233333333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="E20" s="5">
-        <v>7.48</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4366666666666656</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="H20" s="5">
-        <v>5.7</v>
-      </c>
-      <c r="I20" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9333333333333336</v>
-      </c>
-      <c r="K20" s="5">
-        <v>3.49</v>
-      </c>
-      <c r="L20" s="5">
-        <v>5.7</v>
-      </c>
-      <c r="M20" s="5">
-        <v>5.62</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
-        <v>4.9366666666666674</v>
-      </c>
-      <c r="O20" s="5">
-        <v>3.68</v>
-      </c>
-      <c r="P20" s="5">
-        <v>2.97</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>5.53</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="3"/>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6.72</v>
-      </c>
-      <c r="D21" s="5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7.92</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1466666666666665</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5.45</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5.56</v>
-      </c>
-      <c r="I21" s="5">
-        <v>3.78</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>4.93</v>
-      </c>
-      <c r="K21" s="5">
-        <v>5.12</v>
-      </c>
-      <c r="L21" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="M21" s="5">
-        <v>4.87</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3966666666666674</v>
-      </c>
-      <c r="O21" s="5">
-        <v>3.31</v>
-      </c>
-      <c r="P21" s="5">
-        <v>4.84</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>5.48</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5433333333333339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8.18</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10.4</v>
-      </c>
-      <c r="E22" s="5">
-        <v>7.61</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>8.7299999999999986</v>
-      </c>
-      <c r="G22" s="5">
-        <v>3.43</v>
-      </c>
-      <c r="H22" s="5">
-        <v>4.91</v>
-      </c>
-      <c r="I22" s="5">
-        <v>2.98</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7733333333333334</v>
-      </c>
-      <c r="K22" s="5">
-        <v>5.58</v>
-      </c>
-      <c r="L22" s="5">
-        <v>5.42</v>
-      </c>
-      <c r="M22" s="5">
-        <v>2.92</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="O22" s="5">
-        <v>4.18</v>
-      </c>
-      <c r="P22" s="5">
-        <v>3.18</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>2.65</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3366666666666664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6.02</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5.81</v>
-      </c>
-      <c r="E23" s="5">
-        <v>8.14</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6566666666666663</v>
-      </c>
-      <c r="G23" s="5">
-        <v>3.51</v>
-      </c>
-      <c r="H23" s="5">
-        <v>5.48</v>
-      </c>
-      <c r="I23" s="5">
-        <v>5.71</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="K23" s="5">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="L23" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="M23" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="2"/>
-        <v>3.93</v>
-      </c>
-      <c r="O23" s="5">
-        <v>4.79</v>
-      </c>
-      <c r="P23" s="5">
-        <v>3.44</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>5.28</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5033333333333339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10.16</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2533333333333339</v>
-      </c>
-      <c r="G24" s="5">
-        <v>3.66</v>
-      </c>
-      <c r="H24" s="5">
-        <v>4</v>
-      </c>
-      <c r="I24" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6766666666666672</v>
-      </c>
-      <c r="K24" s="5">
-        <v>4.66</v>
-      </c>
-      <c r="L24" s="5">
-        <v>5.63</v>
-      </c>
-      <c r="M24" s="5">
-        <v>2.92</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4033333333333333</v>
-      </c>
-      <c r="O24" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="P24" s="5">
-        <v>4.37</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>5.45</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="3"/>
-        <v>4.4733333333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="6">
-        <v>10.42</v>
+        <v>10.1</v>
       </c>
       <c r="D25" s="5">
-        <v>8.3800000000000008</v>
+        <v>5.96</v>
       </c>
       <c r="E25" s="5">
-        <v>6.43</v>
+        <v>7.68</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>8.41</v>
+        <f t="shared" si="4"/>
+        <v>7.9133333333333331</v>
       </c>
       <c r="G25" s="5">
-        <v>5.96</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="H25" s="5">
-        <v>4.53</v>
+        <v>4.45</v>
       </c>
       <c r="I25" s="5">
-        <v>2.88</v>
+        <v>5.46</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
-        <v>4.456666666666667</v>
+        <f t="shared" si="5"/>
+        <v>4.9633333333333338</v>
       </c>
       <c r="K25" s="5">
-        <v>5.93</v>
+        <v>5.54</v>
       </c>
       <c r="L25" s="5">
-        <v>4.0599999999999996</v>
+        <v>3.85</v>
       </c>
       <c r="M25" s="5">
-        <v>4.4400000000000004</v>
+        <v>3.97</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>4.453333333333334</v>
+      </c>
+      <c r="O25" s="5">
+        <v>3.72</v>
+      </c>
+      <c r="P25" s="5">
+        <v>3.47</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>4.04</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7433333333333336</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5">
+        <v>9.61</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6.01</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7.25</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6233333333333322</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4.33</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3.06</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4966666666666666</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3.06</v>
+      </c>
+      <c r="L26" s="5">
+        <v>5.27</v>
+      </c>
+      <c r="M26" s="5">
+        <v>5.87</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="6"/>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="P26" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="Q26" s="5">
         <v>4.8099999999999996</v>
       </c>
-      <c r="O25" s="5">
-        <v>5.27</v>
-      </c>
-      <c r="P25" s="5">
-        <v>3.19</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="3"/>
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5.88</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5.52</v>
-      </c>
-      <c r="E26" s="5">
-        <v>9.76</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>7.0533333333333319</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="H26" s="5">
-        <v>3.16</v>
-      </c>
-      <c r="I26" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9533333333333331</v>
-      </c>
-      <c r="K26" s="5">
-        <v>3.07</v>
-      </c>
-      <c r="L26" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="M26" s="5">
-        <v>4.88</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="2"/>
-        <v>3.7733333333333334</v>
-      </c>
-      <c r="O26" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="P26" s="5">
-        <v>3.12</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>2.98</v>
-      </c>
       <c r="R26" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0500000000000003</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>3.3800000000000003</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
